--- a/database/tables.xlsx
+++ b/database/tables.xlsx
@@ -14,38 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>MY TRUCK</t>
   </si>
   <si>
-    <t>base table</t>
-  </si>
-  <si>
-    <t>app tables</t>
-  </si>
-  <si>
-    <t>soon</t>
+    <t>BASE TABLE</t>
+  </si>
+  <si>
+    <t>APP TABLES</t>
+  </si>
+  <si>
+    <t>SOON</t>
   </si>
   <si>
     <t>setting</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>trucks</t>
   </si>
   <si>
-    <t>works</t>
+    <t>income_categorys</t>
   </si>
   <si>
     <t>incomes</t>
   </si>
   <si>
-    <t>maintenances</t>
+    <t>outcome_categorys</t>
   </si>
   <si>
     <t>outcomes</t>
   </si>
   <si>
+    <t>assets</t>
+  </si>
+  <si>
     <t>request</t>
   </si>
   <si>
@@ -61,100 +67,130 @@
     <t>int(11)</t>
   </si>
   <si>
-    <t>work_id</t>
+    <t>income_category_id</t>
   </si>
   <si>
     <t>income_id</t>
   </si>
   <si>
-    <t>maintenance_id</t>
+    <t>outcome_category_id</t>
   </si>
   <si>
     <t>outcome_id</t>
   </si>
   <si>
+    <t>asset_id</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
     <t>truck_name</t>
   </si>
   <si>
-    <t>string(50)</t>
-  </si>
-  <si>
-    <t>work_name</t>
-  </si>
-  <si>
-    <t>maintenance_name</t>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>income_category_name</t>
+  </si>
+  <si>
+    <t>outcome_category_name</t>
+  </si>
+  <si>
+    <t>asset_name</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
   </si>
   <si>
     <t>content</t>
   </si>
   <si>
-    <t>truck_plat</t>
-  </si>
-  <si>
-    <t>work_desc</t>
+    <t>truck_brand</t>
+  </si>
+  <si>
+    <t>income_category_desc</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>maintenance_desc</t>
+    <t>outcome_category_desc</t>
+  </si>
+  <si>
+    <t>asset_count</t>
+  </si>
+  <si>
+    <t>truck_plate</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>asset_amount</t>
   </si>
   <si>
     <t>truck_image</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>income_name</t>
+  </si>
+  <si>
+    <t>outcome_name</t>
+  </si>
+  <si>
+    <t>asset_price</t>
   </si>
   <si>
     <t>truck_color</t>
   </si>
   <si>
-    <t>income_name</t>
-  </si>
-  <si>
-    <t>outcome_name</t>
+    <t>income_count</t>
+  </si>
+  <si>
+    <t>outcome_count</t>
+  </si>
+  <si>
+    <t>asset_desc</t>
   </si>
   <si>
     <t>truck_stnk</t>
   </si>
   <si>
-    <t>income_count</t>
-  </si>
-  <si>
-    <t>outcome_count</t>
+    <t>income_amount</t>
+  </si>
+  <si>
+    <t>outcome_amount</t>
+  </si>
+  <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>truck_year</t>
+  </si>
+  <si>
+    <t>income_price</t>
+  </si>
+  <si>
+    <t>outcome_price</t>
+  </si>
+  <si>
+    <t>update_at</t>
+  </si>
+  <si>
+    <t>truck_base_modal</t>
+  </si>
+  <si>
+    <t>income_desc</t>
+  </si>
+  <si>
+    <t>outcome_desc</t>
   </si>
   <si>
     <t>truck_desc</t>
-  </si>
-  <si>
-    <t>income_amount</t>
-  </si>
-  <si>
-    <t>outcome_amount</t>
-  </si>
-  <si>
-    <t>createtime</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>income_price</t>
-  </si>
-  <si>
-    <t>outcome_price</t>
-  </si>
-  <si>
-    <t>update_at</t>
-  </si>
-  <si>
-    <t>income_desc</t>
-  </si>
-  <si>
-    <t>outcome_desc</t>
   </si>
   <si>
     <t>income_date</t>
@@ -360,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,12 +596,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,141 +743,165 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1226,7 @@
   <dimension ref="C3:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1156,348 +1237,447 @@
     <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="16.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="3.77777777777778" customWidth="1"/>
-    <col min="9" max="9" width="11.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="22.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="3.55555555555556" customWidth="1"/>
-    <col min="12" max="12" width="15.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="19.2222222222222" customWidth="1"/>
     <col min="13" max="13" width="40.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="3.55555555555556" customWidth="1"/>
-    <col min="15" max="15" width="18.7777777777778" customWidth="1"/>
+    <col min="15" max="15" width="24.2222222222222" customWidth="1"/>
     <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="3.55555555555556" customWidth="1"/>
-    <col min="18" max="18" width="17.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="3.55555555555556" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.2222222222222" customWidth="1"/>
     <col min="19" max="19" width="40.1111111111111" customWidth="1"/>
-    <col min="20" max="20" width="3.55555555555556" customWidth="1"/>
+    <col min="20" max="20" width="3.55555555555556" style="3" customWidth="1"/>
     <col min="21" max="21" width="11.6666666666667" customWidth="1"/>
-    <col min="23" max="23" width="3.55555555555556" customWidth="1"/>
+    <col min="22" max="22" width="12.8888888888889" customWidth="1"/>
+    <col min="23" max="23" width="3.55555555555556" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="23.4" spans="3:4">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="4"/>
     </row>
-    <row r="6" spans="3:24">
-      <c r="C6" s="2" t="s">
+    <row r="6" s="1" customFormat="1" spans="3:24">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Q6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:24">
-      <c r="C7" t="s">
+    <row r="7" s="2" customFormat="1" spans="3:24">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
+      <c r="G7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="J7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="M7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="X7" s="2" t="s">
+      <c r="P7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="S7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="8"/>
+      <c r="X7" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="3:19">
-      <c r="C8" t="s">
-        <v>11</v>
+    <row r="8" spans="3:22">
+      <c r="C8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22">
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
       </c>
-      <c r="P8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" t="s">
-        <v>14</v>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="3:19">
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="3:19">
-      <c r="C10" t="s">
+    <row r="10" spans="3:22">
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="U10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="6:19">
+    <row r="11" spans="6:22">
       <c r="F11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="12" spans="6:19">
+    <row r="12" spans="6:22">
       <c r="F12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="6:22">
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" t="s">
         <v>32</v>
       </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="13" spans="6:19">
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" t="s">
-        <v>14</v>
+    <row r="14" spans="6:22">
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="14" spans="6:19">
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="6:19">
+    <row r="15" spans="6:22">
       <c r="F15" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="S15" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="U15" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="6:19">
       <c r="F16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="S16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="17" spans="12:19">
+    <row r="17" spans="6:19">
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
       <c r="L17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="R17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19">
+      <c r="F18" t="s">
         <v>49</v>
       </c>
-      <c r="S17" t="s">
-        <v>48</v>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="18" spans="12:19">
-      <c r="L18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" t="s">
-        <v>41</v>
-      </c>
-      <c r="R18" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="12:19">
+    <row r="19" spans="6:19">
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="S19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="12:19">
-      <c r="L21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>51</v>
+      <c r="L21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
